--- a/ADMON_DEL_PROYECTO/BITACORAS/2018/NOV/BITACORA_EQUIPO3_NOVIEMBRE.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2018/NOV/BITACORA_EQUIPO3_NOVIEMBRE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus Alacio\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\NOV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uriel\Documents\GitHub\DINORIV\ADMON_DEL_PROYECTO\BITACORAS\2018\NOV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="2" r:id="rId1"/>
@@ -39,123 +39,6 @@
     <author>Jesus Alacio</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-EL COLOR DEBE SER EL MISMO</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jesus Alacio</author>
-  </authors>
-  <commentList>
-    <comment ref="C11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-REUNIÓN</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-GRÁFICO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-ESTE NO MEDICE NADA ARCHIVO QUE?
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Jesus Alacio</author>
-  </authors>
-  <commentList>
     <comment ref="B8" authorId="0" shapeId="0">
       <text>
         <r>
@@ -177,30 +60,6 @@
           </rPr>
           <t xml:space="preserve">
 SON MUY POCAS ACTIVIDADES PARA UN MES TAN LARGO QUE DE PLANO NO HEMOS HECHO NADA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Jesus Alacio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-PROYECTO NO LLEVA MAYUSCULA</t>
         </r>
       </text>
     </comment>
@@ -257,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Grupo:</t>
   </si>
@@ -504,12 +363,6 @@
     <t>Archivos .cdr(CorelDraw) y .psd(photoshop)</t>
   </si>
   <si>
-    <t>Reunion con el Equipo</t>
-  </si>
-  <si>
-    <t>Diseño Grafico</t>
-  </si>
-  <si>
     <t>EXPO PARQUE INTERACTIVO VIRTUAL</t>
   </si>
   <si>
@@ -540,48 +393,35 @@
     <t>En esta reunión de trabajo se reviso el primer avance de uno de los artefactos a entregar(Plan de Negocios)</t>
   </si>
   <si>
-    <t>cuenta gratuita en powtoo.com</t>
-  </si>
-  <si>
     <t>Se Reviso el diseño del logotipo del proyecto dinoriv</t>
   </si>
   <si>
     <t>Cuenta en powtoon</t>
   </si>
   <si>
-    <t>Programación de Aplicaciones</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">En esta reunión de trabajo se hablo acerca de herramientas para realizar un  comercial informatico del </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pr</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>oyecto</t>
-    </r>
+    <t xml:space="preserve">Programcion de Aplicaciones </t>
+  </si>
+  <si>
+    <t>Reunión con el Equipo</t>
+  </si>
+  <si>
+    <t>Diseño Gráfico</t>
+  </si>
+  <si>
+    <t>Logotipo (Archivos CorelDraw y photoshop)</t>
+  </si>
+  <si>
+    <t>En esta reunión de trabajo se hablo acerca de herramientas para realizar un  comercial informativo del proyecto</t>
+  </si>
+  <si>
+    <t>cCuenta gratuita en powtoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,26 +499,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -697,7 +517,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,12 +575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1080,6 +894,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1122,122 +939,122 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,11 +1658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,148 +1677,148 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
+      <c r="D6" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="D7" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="D8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
+      <c r="D9" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="41">
         <v>3</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="25"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="27"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="86" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="86"/>
       <c r="F15" s="86"/>
@@ -2012,59 +1829,59 @@
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="D18" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2088,16 +1905,15 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="62" zoomScalePageLayoutView="57" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:E22"/>
+      <selection activeCell="E17" sqref="E17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,90 +1929,90 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="58"/>
     </row>
     <row r="3" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="69"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="64"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
       <c r="O6" s="13" t="s">
         <v>31</v>
       </c>
@@ -2204,78 +2020,78 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="29"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="83">
+      <c r="T6" s="75">
         <v>43420</v>
       </c>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="68"/>
+      <c r="E9" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="77" t="s">
+      <c r="G9" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="80"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="72"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="74"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="63"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="32">
         <v>1</v>
       </c>
@@ -2323,15 +2139,15 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="53">
+      <c r="B11" s="85">
         <v>1</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D11" s="88"/>
-      <c r="E11" s="60" t="s">
-        <v>58</v>
+      <c r="E11" s="77" t="s">
+        <v>56</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>37</v>
@@ -2353,10 +2169,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="89"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="61"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -2377,15 +2193,15 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="53">
+      <c r="B13" s="85">
         <v>2</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D13" s="88"/>
-      <c r="E13" s="58" t="s">
-        <v>62</v>
+      <c r="E13" s="79" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>37</v>
@@ -2407,10 +2223,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="89"/>
       <c r="D14" s="90"/>
-      <c r="E14" s="59"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -2431,15 +2247,15 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="53">
+      <c r="B15" s="85">
         <v>3</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D15" s="88"/>
-      <c r="E15" s="58" t="s">
-        <v>47</v>
+      <c r="E15" s="91" t="s">
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>37</v>
@@ -2461,10 +2277,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="89"/>
       <c r="D16" s="90"/>
-      <c r="E16" s="59"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -2485,12 +2301,12 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="53">
+      <c r="B17" s="85">
         <v>4</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="58"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="79"/>
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
@@ -2511,10 +2327,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="53"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -2535,12 +2351,12 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="53">
+      <c r="B19" s="85">
         <v>5</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="58"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
@@ -2561,10 +2377,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="53"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="59"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="80"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2585,12 +2401,12 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="53">
+      <c r="B21" s="85">
         <v>6</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="58"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
@@ -2611,10 +2427,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="53"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="59"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="80"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -2635,12 +2451,12 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="53">
+      <c r="B23" s="85">
         <v>7</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="58"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
@@ -2661,10 +2477,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="59"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -2685,12 +2501,12 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="53">
+      <c r="B25" s="85">
         <v>8</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="58"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -2711,10 +2527,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="53"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="59"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="80"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2735,12 +2551,12 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="53">
+      <c r="B27" s="85">
         <v>9</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="58"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2761,10 +2577,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="53"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="59"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -2785,12 +2601,12 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="53">
+      <c r="B29" s="85">
         <v>10</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="58"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -2811,10 +2627,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="53"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="59"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -2835,12 +2651,12 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="53">
+      <c r="B31" s="85">
         <v>12</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="58"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="79"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2861,10 +2677,10 @@
       <c r="U31" s="19"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -2885,12 +2701,12 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="53">
+      <c r="B33" s="85">
         <v>13</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="58"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -2911,10 +2727,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="53"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="59"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="80"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -2936,34 +2752,11 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="D7:S7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="C33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="B33:B34"/>
@@ -2978,16 +2771,38 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="C31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="D7:S7"/>
+    <mergeCell ref="T6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2995,8 +2810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,40 +2829,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="69"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
@@ -3086,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>12</v>
@@ -3095,10 +2910,10 @@
         <v>41</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>46</v>
@@ -3115,14 +2930,14 @@
       <c r="D10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>64</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>45</v>
@@ -3143,7 +2958,7 @@
         <v>42</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>47</v>
